--- a/data/trans_orig/P80_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P80_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>31708</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20406</v>
+        <v>21327</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46555</v>
+        <v>48814</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.06379629914652074</v>
+        <v>0.06379629914652073</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04105648599300109</v>
+        <v>0.04290927103342448</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09366843610868016</v>
+        <v>0.09821468577940107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -762,19 +762,19 @@
         <v>20432</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13645</v>
+        <v>13228</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30631</v>
+        <v>30027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03281155198073072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02191194297836202</v>
+        <v>0.02124280080719413</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04918995209910045</v>
+        <v>0.04822129858293007</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>52</v>
@@ -783,19 +783,19 @@
         <v>52140</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39257</v>
+        <v>39500</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69559</v>
+        <v>69538</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04656495579157742</v>
+        <v>0.04656495579157741</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03505999174378049</v>
+        <v>0.03527673785992528</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06212215727946514</v>
+        <v>0.06210321008141139</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>465308</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>450461</v>
+        <v>448202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>476610</v>
+        <v>475689</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9362037008534793</v>
+        <v>0.9362037008534791</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9063315638913199</v>
+        <v>0.9017853142205986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.958943514006999</v>
+        <v>0.9570907289665754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>833</v>
@@ -833,19 +833,19 @@
         <v>602268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>592069</v>
+        <v>592673</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>609055</v>
+        <v>609472</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9671884480192694</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9508100479008998</v>
+        <v>0.95177870141707</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.978088057021638</v>
+        <v>0.9787571991928058</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1260</v>
@@ -854,19 +854,19 @@
         <v>1067576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1050157</v>
+        <v>1050178</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1080459</v>
+        <v>1080216</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9534350442084224</v>
+        <v>0.9534350442084226</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9378778427205352</v>
+        <v>0.9378967899185886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9649400082562194</v>
+        <v>0.9647232621400749</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>18116</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10007</v>
+        <v>9733</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>30512</v>
+        <v>31657</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01886802674147559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01042273492568288</v>
+        <v>0.01013728412212944</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03177858100177203</v>
+        <v>0.03297090377694956</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -979,19 +979,19 @@
         <v>14754</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7935</v>
+        <v>8558</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>26188</v>
+        <v>27303</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01324499117141809</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007123617478191272</v>
+        <v>0.007682966304825404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02350999022605598</v>
+        <v>0.02451090977109151</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>28</v>
@@ -1000,19 +1000,19 @@
         <v>32870</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>21455</v>
+        <v>21894</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48454</v>
+        <v>48818</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01584806141471296</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01034466473589549</v>
+        <v>0.01055599254668952</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02336217293115311</v>
+        <v>0.02353741029940862</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>942021</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>929625</v>
+        <v>928480</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>950130</v>
+        <v>950404</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9811319732585244</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.968221418998228</v>
+        <v>0.9670290962230504</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9895772650743171</v>
+        <v>0.9898627158778708</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1589</v>
@@ -1050,19 +1050,19 @@
         <v>1099154</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1087720</v>
+        <v>1086605</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1105973</v>
+        <v>1105350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9867550088285818</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9764900097739442</v>
+        <v>0.9754890902289084</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9928763825218089</v>
+        <v>0.9923170336951747</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2485</v>
@@ -1071,19 +1071,19 @@
         <v>2041174</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2025590</v>
+        <v>2025226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2052589</v>
+        <v>2052150</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9841519385852869</v>
+        <v>0.9841519385852872</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9766378270688479</v>
+        <v>0.9764625897005912</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9896553352641045</v>
+        <v>0.9894440074533104</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>8050</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2784</v>
+        <v>3063</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>18919</v>
+        <v>20684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007691998523418259</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002660609316316056</v>
+        <v>0.002927087352679988</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01807831979412227</v>
+        <v>0.01976562413446654</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -1196,19 +1196,19 @@
         <v>8785</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4293</v>
+        <v>4781</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16212</v>
+        <v>16407</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00839881777423843</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004104173964279837</v>
+        <v>0.004571261394271762</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01549968766403415</v>
+        <v>0.01568602627340554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1217,19 +1217,19 @@
         <v>16834</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9620</v>
+        <v>10054</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>28852</v>
+        <v>29223</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.008045321574973435</v>
+        <v>0.008045321574973433</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00459733475127408</v>
+        <v>0.004804836545570386</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01378873486160003</v>
+        <v>0.01396606457299645</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>1038429</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1027560</v>
+        <v>1025795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1043695</v>
+        <v>1043416</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9923080014765817</v>
+        <v>0.9923080014765818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9819216802058777</v>
+        <v>0.9802343758655334</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9973393906836839</v>
+        <v>0.99707291264732</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1503</v>
@@ -1267,19 +1267,19 @@
         <v>1037182</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1029755</v>
+        <v>1029560</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1041674</v>
+        <v>1041186</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9916011822257617</v>
+        <v>0.9916011822257615</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9845003123359666</v>
+        <v>0.9843139737265945</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9958958260357201</v>
+        <v>0.9954287386057282</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2526</v>
@@ -1288,19 +1288,19 @@
         <v>2075612</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2063594</v>
+        <v>2063223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2082826</v>
+        <v>2082392</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9919546784250267</v>
+        <v>0.9919546784250264</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9862112651383999</v>
+        <v>0.9860339354270036</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9954026652487256</v>
+        <v>0.9951951634544295</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>21199</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11817</v>
+        <v>11858</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>36261</v>
+        <v>35809</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02174643459916775</v>
+        <v>0.02174643459916774</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01212270243291758</v>
+        <v>0.01216466182530475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03719774185897144</v>
+        <v>0.03673477228739057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>14</v>
@@ -1413,19 +1413,19 @@
         <v>11155</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>6007</v>
+        <v>5979</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>20387</v>
+        <v>18175</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01231119768375563</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006629771823425003</v>
+        <v>0.00659919352477196</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02249988103609199</v>
+        <v>0.02005911931141281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1434,19 +1434,19 @@
         <v>32354</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20826</v>
+        <v>21171</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48441</v>
+        <v>49102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01720119463424852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01107241580957421</v>
+        <v>0.0112558716877026</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0257541962480299</v>
+        <v>0.02610542206383371</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>953611</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>938549</v>
+        <v>939001</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>962993</v>
+        <v>962952</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9782535654008323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9628022581410284</v>
+        <v>0.9632652277126095</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9878772975670824</v>
+        <v>0.9878353381746952</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1303</v>
@@ -1484,19 +1484,19 @@
         <v>894928</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>885696</v>
+        <v>887908</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>900076</v>
+        <v>900104</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9876888023162445</v>
+        <v>0.9876888023162442</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9775001189639079</v>
+        <v>0.9799408806885873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9933702281765749</v>
+        <v>0.9934008064752281</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2234</v>
@@ -1505,19 +1505,19 @@
         <v>1848539</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1832452</v>
+        <v>1831791</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1860067</v>
+        <v>1859722</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9827988053657515</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.97424580375197</v>
+        <v>0.9738945779361644</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9889275841904258</v>
+        <v>0.9887441283122972</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>79072</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61144</v>
+        <v>60048</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102973</v>
+        <v>101851</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02273196372547161</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01757796452706469</v>
+        <v>0.01726278742231047</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02960331314031457</v>
+        <v>0.02928078973787271</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>65</v>
@@ -1630,19 +1630,19 @@
         <v>55125</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42162</v>
+        <v>42125</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>71870</v>
+        <v>70741</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01494454548107839</v>
+        <v>0.01494454548107838</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01143025283530115</v>
+        <v>0.01142008735881251</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01948397872823092</v>
+        <v>0.0191779136566957</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1651,19 +1651,19 @@
         <v>134197</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110365</v>
+        <v>111134</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>163337</v>
+        <v>161484</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01872404923075533</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01539888893691819</v>
+        <v>0.01550619975992158</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02278978384752839</v>
+        <v>0.02253127443153656</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3399369</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3375468</v>
+        <v>3376590</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3417297</v>
+        <v>3418393</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9772680362745283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9703966868596853</v>
+        <v>0.9707192102621265</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9824220354729353</v>
+        <v>0.9827372125776892</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5228</v>
@@ -1701,19 +1701,19 @@
         <v>3633533</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3616788</v>
+        <v>3617917</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3646496</v>
+        <v>3646533</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9850554545189217</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.980516021271769</v>
+        <v>0.9808220863433044</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9885697471646987</v>
+        <v>0.9885799126411874</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8505</v>
@@ -1722,19 +1722,19 @@
         <v>7032902</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7003762</v>
+        <v>7005615</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7056734</v>
+        <v>7055965</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9812759507692447</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9772102161524718</v>
+        <v>0.9774687255684632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9846011110630823</v>
+        <v>0.9844938002400778</v>
       </c>
     </row>
     <row r="18">
